--- a/biology/Médecine/1837_en_santé_et_médecine/1837_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1837_en_santé_et_médecine/1837_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1837_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1837_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1837 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1837_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1837_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pierre Craninx, médecin, est nommé doyen de l'université catholique de Louvain[1].
-9 juin-20 septembre : la deuxième pandémie de choléra se termine en ravageant Malte[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre Craninx, médecin, est nommé doyen de l'université catholique de Louvain.
+9 juin-20 septembre : la deuxième pandémie de choléra se termine en ravageant Malte.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1837_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1837_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>13 février : Paul Brouardel (mort en 1906), médecin français, spécialiste de médecine légale.
 7 mars :  Henry Draper (mort en 1882), médecin et astronome américain.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1837_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1837_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +593,18 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 février : René-Nicolas Dufriche Desgenettes (né en 1762), médecin de la Grande Armée.
-16 février : Gottfried Reinhold Treviranus (né en 1776), médecin et mathématicien allemand[3].
+16 février : Gottfried Reinhold Treviranus (né en 1776), médecin et mathématicien allemand.
 19 février : Georg Büchner (né en 1813), médecin, écrivain, dramaturge, révolutionnaire et scientifique allemand.
 8 mars : Johann Trommsdorff (né en 1770), pharmacien et chimiste allemand.
-22 mars : Karl Gustav Himly (né en 1772), chirurgien et ophtalmologue allemand[4].
+22 mars : Karl Gustav Himly (né en 1772), chirurgien et ophtalmologue allemand.
 30 mars : Antoine Dubois (né en 1756), chirurgien français choisi pour accoucher l'impératrice Marie-Louise à la naissance du roi de Rome en 1811.
-10 août : Carlo Botta (né en 1766), médecin et historien italien[5].
-4 novembre : Jean-Louis Alibert (né en 1768), médecin français, considéré comme le fondateur de la dermatologie en France[6].</t>
+10 août : Carlo Botta (né en 1766), médecin et historien italien.
+4 novembre : Jean-Louis Alibert (né en 1768), médecin français, considéré comme le fondateur de la dermatologie en France.</t>
         </is>
       </c>
     </row>
